--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il1b-Il1r1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il1b-Il1r1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.232906273165838</v>
+        <v>0.2689485</v>
       </c>
       <c r="H2">
-        <v>0.232906273165838</v>
+        <v>0.5378970000000001</v>
       </c>
       <c r="I2">
-        <v>0.0006627557503523407</v>
+        <v>0.0006726644372413393</v>
       </c>
       <c r="J2">
-        <v>0.0006627557503523407</v>
+        <v>0.0004485435312549028</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.9402206690813</v>
+        <v>20.003843</v>
       </c>
       <c r="N2">
-        <v>17.9402206690813</v>
+        <v>40.007686</v>
       </c>
       <c r="O2">
-        <v>0.1470734896687511</v>
+        <v>0.1517504313331627</v>
       </c>
       <c r="P2">
-        <v>0.1470734896687511</v>
+        <v>0.1111693208434551</v>
       </c>
       <c r="Q2">
-        <v>4.178389935808462</v>
+        <v>5.380003569085501</v>
       </c>
       <c r="R2">
-        <v>4.178389935808462</v>
+        <v>21.520014276342</v>
       </c>
       <c r="S2">
-        <v>9.747380100235037E-05</v>
+        <v>0.0001020771184938524</v>
       </c>
       <c r="T2">
-        <v>9.747380100235037E-05</v>
+        <v>4.986427973833263E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.232906273165838</v>
+        <v>0.2689485</v>
       </c>
       <c r="H3">
-        <v>0.232906273165838</v>
+        <v>0.5378970000000001</v>
       </c>
       <c r="I3">
-        <v>0.0006627557503523407</v>
+        <v>0.0006726644372413393</v>
       </c>
       <c r="J3">
-        <v>0.0006627557503523407</v>
+        <v>0.0004485435312549028</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.37749150087841</v>
+        <v>85.28390633333333</v>
       </c>
       <c r="N3">
-        <v>80.37749150087841</v>
+        <v>255.851719</v>
       </c>
       <c r="O3">
-        <v>0.6589327067881564</v>
+        <v>0.6469691634682588</v>
       </c>
       <c r="P3">
-        <v>0.6589327067881564</v>
+        <v>0.710934939797831</v>
       </c>
       <c r="Q3">
-        <v>18.72042199188841</v>
+        <v>22.9369786824905</v>
       </c>
       <c r="R3">
-        <v>18.72042199188841</v>
+        <v>137.621872094943</v>
       </c>
       <c r="S3">
-        <v>0.0004367114405190835</v>
+        <v>0.0004351931482568763</v>
       </c>
       <c r="T3">
-        <v>0.0004367114405190835</v>
+        <v>0.0003188852683894108</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.232906273165838</v>
+        <v>0.2689485</v>
       </c>
       <c r="H4">
-        <v>0.232906273165838</v>
+        <v>0.5378970000000001</v>
       </c>
       <c r="I4">
-        <v>0.0006627557503523407</v>
+        <v>0.0006726644372413393</v>
       </c>
       <c r="J4">
-        <v>0.0006627557503523407</v>
+        <v>0.0004485435312549028</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.289509678950694</v>
+        <v>0.3719913333333333</v>
       </c>
       <c r="N4">
-        <v>0.289509678950694</v>
+        <v>1.115974</v>
       </c>
       <c r="O4">
-        <v>0.00237339325761698</v>
+        <v>0.002821950026578976</v>
       </c>
       <c r="P4">
-        <v>0.00237339325761698</v>
+        <v>0.003100955942789443</v>
       </c>
       <c r="Q4">
-        <v>0.0674286203698444</v>
+        <v>0.100046511113</v>
       </c>
       <c r="R4">
-        <v>0.0674286203698444</v>
+        <v>0.6002790666780001</v>
       </c>
       <c r="S4">
-        <v>1.572980029333128E-06</v>
+        <v>1.898225426551929E-06</v>
       </c>
       <c r="T4">
-        <v>1.572980029333128E-06</v>
+        <v>1.390913728844653E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.232906273165838</v>
+        <v>0.2689485</v>
       </c>
       <c r="H5">
-        <v>0.232906273165838</v>
+        <v>0.5378970000000001</v>
       </c>
       <c r="I5">
-        <v>0.0006627557503523407</v>
+        <v>0.0006726644372413393</v>
       </c>
       <c r="J5">
-        <v>0.0006627557503523407</v>
+        <v>0.0004485435312549028</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.355955655560954</v>
+        <v>0.3862156666666667</v>
       </c>
       <c r="N5">
-        <v>0.355955655560954</v>
+        <v>1.158647</v>
       </c>
       <c r="O5">
-        <v>0.002918115746530467</v>
+        <v>0.002929856728244252</v>
       </c>
       <c r="P5">
-        <v>0.002918115746530467</v>
+        <v>0.003219531369230071</v>
       </c>
       <c r="Q5">
-        <v>0.0829043051490045</v>
+        <v>0.1038721242265</v>
       </c>
       <c r="R5">
-        <v>0.0829043051490045</v>
+        <v>0.6232327453590001</v>
       </c>
       <c r="S5">
-        <v>1.933997991206781E-06</v>
+        <v>1.970810427302171E-06</v>
       </c>
       <c r="T5">
-        <v>1.933997991206781E-06</v>
+        <v>1.444099969340389E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.232906273165838</v>
+        <v>0.2689485</v>
       </c>
       <c r="H6">
-        <v>0.232906273165838</v>
+        <v>0.5378970000000001</v>
       </c>
       <c r="I6">
-        <v>0.0006627557503523407</v>
+        <v>0.0006726644372413393</v>
       </c>
       <c r="J6">
-        <v>0.0006627557503523407</v>
+        <v>0.0004485435312549028</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.0097900643193</v>
+        <v>10.19719066666667</v>
       </c>
       <c r="N6">
-        <v>10.0097900643193</v>
+        <v>30.591572</v>
       </c>
       <c r="O6">
-        <v>0.08206001379616369</v>
+        <v>0.07735654004348905</v>
       </c>
       <c r="P6">
-        <v>0.08206001379616369</v>
+        <v>0.08500477340213224</v>
       </c>
       <c r="Q6">
-        <v>2.331342899053042</v>
+        <v>2.742519134014</v>
       </c>
       <c r="R6">
-        <v>2.331342899053042</v>
+        <v>16.455114804084</v>
       </c>
       <c r="S6">
-        <v>5.43857460173999E-05</v>
+        <v>5.203499347529068E-05</v>
       </c>
       <c r="T6">
-        <v>5.43857460173999E-05</v>
+        <v>3.812834123531523E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.232906273165838</v>
+        <v>0.2689485</v>
       </c>
       <c r="H7">
-        <v>0.232906273165838</v>
+        <v>0.5378970000000001</v>
       </c>
       <c r="I7">
-        <v>0.0006627557503523407</v>
+        <v>0.0006726644372413393</v>
       </c>
       <c r="J7">
-        <v>0.0006627557503523407</v>
+        <v>0.0004485435312549028</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.0083678131839</v>
+        <v>15.5775195</v>
       </c>
       <c r="N7">
-        <v>13.0083678131839</v>
+        <v>31.155039</v>
       </c>
       <c r="O7">
-        <v>0.1066422807427814</v>
+        <v>0.1181720584002661</v>
       </c>
       <c r="P7">
-        <v>0.1066422807427814</v>
+        <v>0.08657047864456238</v>
       </c>
       <c r="Q7">
-        <v>3.029730467339104</v>
+        <v>4.189550503245751</v>
       </c>
       <c r="R7">
-        <v>3.029730467339104</v>
+        <v>16.758202012983</v>
       </c>
       <c r="S7">
-        <v>7.067778479296704E-05</v>
+        <v>7.949014116146567E-05</v>
       </c>
       <c r="T7">
-        <v>7.067778479296704E-05</v>
+        <v>3.883062819365916E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>159.703560841192</v>
+        <v>186.092458</v>
       </c>
       <c r="H8">
-        <v>159.703560841192</v>
+        <v>558.277374</v>
       </c>
       <c r="I8">
-        <v>0.4544508478046861</v>
+        <v>0.4654340088731767</v>
       </c>
       <c r="J8">
-        <v>0.4544508478046861</v>
+        <v>0.4655383925801297</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.9402206690813</v>
+        <v>20.003843</v>
       </c>
       <c r="N8">
-        <v>17.9402206690813</v>
+        <v>40.007686</v>
       </c>
       <c r="O8">
-        <v>0.1470734896687511</v>
+        <v>0.1517504313331627</v>
       </c>
       <c r="P8">
-        <v>0.1470734896687511</v>
+        <v>0.1111693208434551</v>
       </c>
       <c r="Q8">
-        <v>2865.117123129035</v>
+        <v>3722.564313316094</v>
       </c>
       <c r="R8">
-        <v>2865.117123129035</v>
+        <v>22335.38587989656</v>
       </c>
       <c r="S8">
-        <v>0.06683767206955769</v>
+        <v>0.07062981160362765</v>
       </c>
       <c r="T8">
-        <v>0.06683767206955769</v>
+        <v>0.0517535869296868</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>159.703560841192</v>
+        <v>186.092458</v>
       </c>
       <c r="H9">
-        <v>159.703560841192</v>
+        <v>558.277374</v>
       </c>
       <c r="I9">
-        <v>0.4544508478046861</v>
+        <v>0.4654340088731767</v>
       </c>
       <c r="J9">
-        <v>0.4544508478046861</v>
+        <v>0.4655383925801297</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.37749150087841</v>
+        <v>85.28390633333333</v>
       </c>
       <c r="N9">
-        <v>80.37749150087841</v>
+        <v>255.851719</v>
       </c>
       <c r="O9">
-        <v>0.6589327067881564</v>
+        <v>0.6469691634682588</v>
       </c>
       <c r="P9">
-        <v>0.6589327067881564</v>
+        <v>0.710934939797831</v>
       </c>
       <c r="Q9">
-        <v>12836.57160417293</v>
+        <v>15870.69175741177</v>
       </c>
       <c r="R9">
-        <v>12836.57160417293</v>
+        <v>142836.2258167059</v>
       </c>
       <c r="S9">
-        <v>0.2994525272461143</v>
+        <v>0.3011214513703573</v>
       </c>
       <c r="T9">
-        <v>0.2994525272461143</v>
+        <v>0.3309675091025335</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>159.703560841192</v>
+        <v>186.092458</v>
       </c>
       <c r="H10">
-        <v>159.703560841192</v>
+        <v>558.277374</v>
       </c>
       <c r="I10">
-        <v>0.4544508478046861</v>
+        <v>0.4654340088731767</v>
       </c>
       <c r="J10">
-        <v>0.4544508478046861</v>
+        <v>0.4655383925801297</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.289509678950694</v>
+        <v>0.3719913333333333</v>
       </c>
       <c r="N10">
-        <v>0.289509678950694</v>
+        <v>1.115974</v>
       </c>
       <c r="O10">
-        <v>0.00237339325761698</v>
+        <v>0.002821950026578976</v>
       </c>
       <c r="P10">
-        <v>0.00237339325761698</v>
+        <v>0.003100955942789443</v>
       </c>
       <c r="Q10">
-        <v>46.23572662641612</v>
+        <v>69.22478157469733</v>
       </c>
       <c r="R10">
-        <v>46.23572662641612</v>
+        <v>623.023034172276</v>
       </c>
       <c r="S10">
-        <v>0.001078590578097963</v>
+        <v>0.00131343151371042</v>
       </c>
       <c r="T10">
-        <v>0.001078590578097963</v>
+        <v>0.001443614045067998</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>159.703560841192</v>
+        <v>186.092458</v>
       </c>
       <c r="H11">
-        <v>159.703560841192</v>
+        <v>558.277374</v>
       </c>
       <c r="I11">
-        <v>0.4544508478046861</v>
+        <v>0.4654340088731767</v>
       </c>
       <c r="J11">
-        <v>0.4544508478046861</v>
+        <v>0.4655383925801297</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.355955655560954</v>
+        <v>0.3862156666666667</v>
       </c>
       <c r="N11">
-        <v>0.355955655560954</v>
+        <v>1.158647</v>
       </c>
       <c r="O11">
-        <v>0.002918115746530467</v>
+        <v>0.002929856728244252</v>
       </c>
       <c r="P11">
-        <v>0.002918115746530467</v>
+        <v>0.003219531369230071</v>
       </c>
       <c r="Q11">
-        <v>56.8473856946452</v>
+        <v>71.87182272810867</v>
       </c>
       <c r="R11">
-        <v>56.8473856946452</v>
+        <v>646.846404552978</v>
       </c>
       <c r="S11">
-        <v>0.001326140175002976</v>
+        <v>0.001363654962450771</v>
       </c>
       <c r="T11">
-        <v>0.001326140175002976</v>
+        <v>0.001498815458492671</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>159.703560841192</v>
+        <v>186.092458</v>
       </c>
       <c r="H12">
-        <v>159.703560841192</v>
+        <v>558.277374</v>
       </c>
       <c r="I12">
-        <v>0.4544508478046861</v>
+        <v>0.4654340088731767</v>
       </c>
       <c r="J12">
-        <v>0.4544508478046861</v>
+        <v>0.4655383925801297</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.0097900643193</v>
+        <v>10.19719066666667</v>
       </c>
       <c r="N12">
-        <v>10.0097900643193</v>
+        <v>30.591572</v>
       </c>
       <c r="O12">
-        <v>0.08206001379616369</v>
+        <v>0.07735654004348905</v>
       </c>
       <c r="P12">
-        <v>0.08206001379616369</v>
+        <v>0.08500477340213224</v>
       </c>
       <c r="Q12">
-        <v>1598.599116544577</v>
+        <v>1897.620275854659</v>
       </c>
       <c r="R12">
-        <v>1598.599116544577</v>
+        <v>17078.58248269193</v>
       </c>
       <c r="S12">
-        <v>0.03729224284053083</v>
+        <v>0.03600436454499953</v>
       </c>
       <c r="T12">
-        <v>0.03729224284053083</v>
+        <v>0.0395729855712668</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>159.703560841192</v>
+        <v>186.092458</v>
       </c>
       <c r="H13">
-        <v>159.703560841192</v>
+        <v>558.277374</v>
       </c>
       <c r="I13">
-        <v>0.4544508478046861</v>
+        <v>0.4654340088731767</v>
       </c>
       <c r="J13">
-        <v>0.4544508478046861</v>
+        <v>0.4655383925801297</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.0083678131839</v>
+        <v>15.5775195</v>
       </c>
       <c r="N13">
-        <v>13.0083678131839</v>
+        <v>31.155039</v>
       </c>
       <c r="O13">
-        <v>0.1066422807427814</v>
+        <v>0.1181720584002661</v>
       </c>
       <c r="P13">
-        <v>0.1066422807427814</v>
+        <v>0.08657047864456238</v>
       </c>
       <c r="Q13">
-        <v>2077.482660497419</v>
+        <v>2898.858893297931</v>
       </c>
       <c r="R13">
-        <v>2077.482660497419</v>
+        <v>17393.15335978759</v>
       </c>
       <c r="S13">
-        <v>0.04846367489538235</v>
+        <v>0.05500129487803099</v>
       </c>
       <c r="T13">
-        <v>0.04846367489538235</v>
+        <v>0.04030188147308202</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>190.892493701421</v>
+        <v>212.1218693333333</v>
       </c>
       <c r="H14">
-        <v>190.892493701421</v>
+        <v>636.365608</v>
       </c>
       <c r="I14">
-        <v>0.543201761721683</v>
+        <v>0.5305359124950968</v>
       </c>
       <c r="J14">
-        <v>0.543201761721683</v>
+        <v>0.5306548967209208</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.9402206690813</v>
+        <v>20.003843</v>
       </c>
       <c r="N14">
-        <v>17.9402206690813</v>
+        <v>40.007686</v>
       </c>
       <c r="O14">
-        <v>0.1470734896687511</v>
+        <v>0.1517504313331627</v>
       </c>
       <c r="P14">
-        <v>0.1470734896687511</v>
+        <v>0.1111693208434551</v>
       </c>
       <c r="Q14">
-        <v>3424.653461074704</v>
+        <v>4243.252571010514</v>
       </c>
       <c r="R14">
-        <v>3424.653461074704</v>
+        <v>25459.51542606308</v>
       </c>
       <c r="S14">
-        <v>0.07989057869062134</v>
+        <v>0.08050905355886402</v>
       </c>
       <c r="T14">
-        <v>0.07989057869062134</v>
+        <v>0.05899254447071859</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>190.892493701421</v>
+        <v>212.1218693333333</v>
       </c>
       <c r="H15">
-        <v>190.892493701421</v>
+        <v>636.365608</v>
       </c>
       <c r="I15">
-        <v>0.543201761721683</v>
+        <v>0.5305359124950968</v>
       </c>
       <c r="J15">
-        <v>0.543201761721683</v>
+        <v>0.5306548967209208</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>80.37749150087841</v>
+        <v>85.28390633333333</v>
       </c>
       <c r="N15">
-        <v>80.37749150087841</v>
+        <v>255.851719</v>
       </c>
       <c r="O15">
-        <v>0.6589327067881564</v>
+        <v>0.6469691634682588</v>
       </c>
       <c r="P15">
-        <v>0.6589327067881564</v>
+        <v>0.710934939797831</v>
       </c>
       <c r="Q15">
-        <v>15343.45979006745</v>
+        <v>18090.58163547557</v>
       </c>
       <c r="R15">
-        <v>15343.45979006745</v>
+        <v>162815.2347192802</v>
       </c>
       <c r="S15">
-        <v>0.3579334071833637</v>
+        <v>0.3432403754968221</v>
       </c>
       <c r="T15">
-        <v>0.3579334071833637</v>
+        <v>0.377261107053712</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>190.892493701421</v>
+        <v>212.1218693333333</v>
       </c>
       <c r="H16">
-        <v>190.892493701421</v>
+        <v>636.365608</v>
       </c>
       <c r="I16">
-        <v>0.543201761721683</v>
+        <v>0.5305359124950968</v>
       </c>
       <c r="J16">
-        <v>0.543201761721683</v>
+        <v>0.5306548967209208</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.289509678950694</v>
+        <v>0.3719913333333333</v>
       </c>
       <c r="N16">
-        <v>0.289509678950694</v>
+        <v>1.115974</v>
       </c>
       <c r="O16">
-        <v>0.00237339325761698</v>
+        <v>0.002821950026578976</v>
       </c>
       <c r="P16">
-        <v>0.00237339325761698</v>
+        <v>0.003100955942789443</v>
       </c>
       <c r="Q16">
-        <v>55.26522456559577</v>
+        <v>78.90749700246577</v>
       </c>
       <c r="R16">
-        <v>55.26522456559577</v>
+        <v>710.167473022192</v>
       </c>
       <c r="S16">
-        <v>0.001289231398795908</v>
+        <v>0.001497145832366639</v>
       </c>
       <c r="T16">
-        <v>0.001289231398795908</v>
+        <v>0.001645537455557057</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>190.892493701421</v>
+        <v>212.1218693333333</v>
       </c>
       <c r="H17">
-        <v>190.892493701421</v>
+        <v>636.365608</v>
       </c>
       <c r="I17">
-        <v>0.543201761721683</v>
+        <v>0.5305359124950968</v>
       </c>
       <c r="J17">
-        <v>0.543201761721683</v>
+        <v>0.5306548967209208</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.355955655560954</v>
+        <v>0.3862156666666667</v>
       </c>
       <c r="N17">
-        <v>0.355955655560954</v>
+        <v>1.158647</v>
       </c>
       <c r="O17">
-        <v>0.002918115746530467</v>
+        <v>0.002929856728244252</v>
       </c>
       <c r="P17">
-        <v>0.002918115746530467</v>
+        <v>0.003219531369230071</v>
       </c>
       <c r="Q17">
-        <v>67.94926273715458</v>
+        <v>81.92478917915288</v>
       </c>
       <c r="R17">
-        <v>67.94926273715458</v>
+        <v>737.3231026123759</v>
       </c>
       <c r="S17">
-        <v>0.001585125614423134</v>
+        <v>0.001554394212798963</v>
       </c>
       <c r="T17">
-        <v>0.001585125614423134</v>
+        <v>0.001708460086228548</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>190.892493701421</v>
+        <v>212.1218693333333</v>
       </c>
       <c r="H18">
-        <v>190.892493701421</v>
+        <v>636.365608</v>
       </c>
       <c r="I18">
-        <v>0.543201761721683</v>
+        <v>0.5305359124950968</v>
       </c>
       <c r="J18">
-        <v>0.543201761721683</v>
+        <v>0.5306548967209208</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.0097900643193</v>
+        <v>10.19719066666667</v>
       </c>
       <c r="N18">
-        <v>10.0097900643193</v>
+        <v>30.591572</v>
       </c>
       <c r="O18">
-        <v>0.08206001379616369</v>
+        <v>0.07735654004348905</v>
       </c>
       <c r="P18">
-        <v>0.08206001379616369</v>
+        <v>0.08500477340213224</v>
       </c>
       <c r="Q18">
-        <v>1910.793786805619</v>
+        <v>2163.047146161753</v>
       </c>
       <c r="R18">
-        <v>1910.793786805619</v>
+        <v>19467.42431545577</v>
       </c>
       <c r="S18">
-        <v>0.04457514406098173</v>
+        <v>0.04104042255943596</v>
       </c>
       <c r="T18">
-        <v>0.04457514406098173</v>
+        <v>0.04510819925049376</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>190.892493701421</v>
+        <v>212.1218693333333</v>
       </c>
       <c r="H19">
-        <v>190.892493701421</v>
+        <v>636.365608</v>
       </c>
       <c r="I19">
-        <v>0.543201761721683</v>
+        <v>0.5305359124950968</v>
       </c>
       <c r="J19">
-        <v>0.543201761721683</v>
+        <v>0.5306548967209208</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>13.0083678131839</v>
+        <v>15.5775195</v>
       </c>
       <c r="N19">
-        <v>13.0083678131839</v>
+        <v>31.155039</v>
       </c>
       <c r="O19">
-        <v>0.1066422807427814</v>
+        <v>0.1181720584002661</v>
       </c>
       <c r="P19">
-        <v>0.1066422807427814</v>
+        <v>0.08657047864456238</v>
       </c>
       <c r="Q19">
-        <v>2483.199770843975</v>
+        <v>3304.332555916452</v>
       </c>
       <c r="R19">
-        <v>2483.199770843975</v>
+        <v>19825.99533549871</v>
       </c>
       <c r="S19">
-        <v>0.05792827477349715</v>
+        <v>0.06269452083480903</v>
       </c>
       <c r="T19">
-        <v>0.05792827477349715</v>
+        <v>0.04593904840421093</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.592015979998596</v>
+        <v>1.342380333333334</v>
       </c>
       <c r="H20">
-        <v>0.592015979998596</v>
+        <v>4.027141</v>
       </c>
       <c r="I20">
-        <v>0.001684634723278447</v>
+        <v>0.00335741419448522</v>
       </c>
       <c r="J20">
-        <v>0.001684634723278447</v>
+        <v>0.003358167167694559</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.9402206690813</v>
+        <v>20.003843</v>
       </c>
       <c r="N20">
-        <v>17.9402206690813</v>
+        <v>40.007686</v>
       </c>
       <c r="O20">
-        <v>0.1470734896687511</v>
+        <v>0.1517504313331627</v>
       </c>
       <c r="P20">
-        <v>0.1470734896687511</v>
+        <v>0.1111693208434551</v>
       </c>
       <c r="Q20">
-        <v>10.62089732079723</v>
+        <v>26.85276543428767</v>
       </c>
       <c r="R20">
-        <v>10.62089732079723</v>
+        <v>161.116592605726</v>
       </c>
       <c r="S20">
-        <v>0.000247765107569712</v>
+        <v>0.0005094890521772153</v>
       </c>
       <c r="T20">
-        <v>0.000247765107569712</v>
+        <v>0.0003733251633113934</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>26</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.592015979998596</v>
+        <v>1.342380333333334</v>
       </c>
       <c r="H21">
-        <v>0.592015979998596</v>
+        <v>4.027141</v>
       </c>
       <c r="I21">
-        <v>0.001684634723278447</v>
+        <v>0.00335741419448522</v>
       </c>
       <c r="J21">
-        <v>0.001684634723278447</v>
+        <v>0.003358167167694559</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>80.37749150087841</v>
+        <v>85.28390633333333</v>
       </c>
       <c r="N21">
-        <v>80.37749150087841</v>
+        <v>255.851719</v>
       </c>
       <c r="O21">
-        <v>0.6589327067881564</v>
+        <v>0.6469691634682588</v>
       </c>
       <c r="P21">
-        <v>0.6589327067881564</v>
+        <v>0.710934939797831</v>
       </c>
       <c r="Q21">
-        <v>47.58475940072135</v>
+        <v>114.4834386117088</v>
       </c>
       <c r="R21">
-        <v>47.58475940072135</v>
+        <v>1030.350947505379</v>
       </c>
       <c r="S21">
-        <v>0.001110060918159184</v>
+        <v>0.002172143452822561</v>
       </c>
       <c r="T21">
-        <v>0.001110060918159184</v>
+        <v>0.002387438373195984</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.592015979998596</v>
+        <v>1.342380333333334</v>
       </c>
       <c r="H22">
-        <v>0.592015979998596</v>
+        <v>4.027141</v>
       </c>
       <c r="I22">
-        <v>0.001684634723278447</v>
+        <v>0.00335741419448522</v>
       </c>
       <c r="J22">
-        <v>0.001684634723278447</v>
+        <v>0.003358167167694559</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.289509678950694</v>
+        <v>0.3719913333333333</v>
       </c>
       <c r="N22">
-        <v>0.289509678950694</v>
+        <v>1.115974</v>
       </c>
       <c r="O22">
-        <v>0.00237339325761698</v>
+        <v>0.002821950026578976</v>
       </c>
       <c r="P22">
-        <v>0.00237339325761698</v>
+        <v>0.003100955942789443</v>
       </c>
       <c r="Q22">
-        <v>0.171394356303074</v>
+        <v>0.4993538500371112</v>
       </c>
       <c r="R22">
-        <v>0.171394356303074</v>
+        <v>4.494184650334001</v>
       </c>
       <c r="S22">
-        <v>3.998300693776513E-06</v>
+        <v>9.474455075364196E-06</v>
       </c>
       <c r="T22">
-        <v>3.998300693776513E-06</v>
+        <v>1.041352843554283E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.592015979998596</v>
+        <v>1.342380333333334</v>
       </c>
       <c r="H23">
-        <v>0.592015979998596</v>
+        <v>4.027141</v>
       </c>
       <c r="I23">
-        <v>0.001684634723278447</v>
+        <v>0.00335741419448522</v>
       </c>
       <c r="J23">
-        <v>0.001684634723278447</v>
+        <v>0.003358167167694559</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.355955655560954</v>
+        <v>0.3862156666666667</v>
       </c>
       <c r="N23">
-        <v>0.355955655560954</v>
+        <v>1.158647</v>
       </c>
       <c r="O23">
-        <v>0.002918115746530467</v>
+        <v>0.002929856728244252</v>
       </c>
       <c r="P23">
-        <v>0.002918115746530467</v>
+        <v>0.003219531369230071</v>
       </c>
       <c r="Q23">
-        <v>0.2107314362629609</v>
+        <v>0.5184483153585556</v>
       </c>
       <c r="R23">
-        <v>0.2107314362629609</v>
+        <v>4.666034838227</v>
       </c>
       <c r="S23">
-        <v>4.915959113150832E-06</v>
+        <v>9.836742567215274E-06</v>
       </c>
       <c r="T23">
-        <v>4.915959113150832E-06</v>
+        <v>1.081172453951113E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.592015979998596</v>
+        <v>1.342380333333334</v>
       </c>
       <c r="H24">
-        <v>0.592015979998596</v>
+        <v>4.027141</v>
       </c>
       <c r="I24">
-        <v>0.001684634723278447</v>
+        <v>0.00335741419448522</v>
       </c>
       <c r="J24">
-        <v>0.001684634723278447</v>
+        <v>0.003358167167694559</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.0097900643193</v>
+        <v>10.19719066666667</v>
       </c>
       <c r="N24">
-        <v>10.0097900643193</v>
+        <v>30.591572</v>
       </c>
       <c r="O24">
-        <v>0.08206001379616369</v>
+        <v>0.07735654004348905</v>
       </c>
       <c r="P24">
-        <v>0.08206001379616369</v>
+        <v>0.08500477340213224</v>
       </c>
       <c r="Q24">
-        <v>5.9259556745082</v>
+        <v>13.68850820618356</v>
       </c>
       <c r="R24">
-        <v>5.9259556745082</v>
+        <v>123.196573855652</v>
       </c>
       <c r="S24">
-        <v>0.0001382411486337258</v>
+        <v>0.0002597179455782744</v>
       </c>
       <c r="T24">
-        <v>0.0001382411486337258</v>
+        <v>0.0002854602391363562</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>27</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.592015979998596</v>
+        <v>1.342380333333334</v>
       </c>
       <c r="H25">
-        <v>0.592015979998596</v>
+        <v>4.027141</v>
       </c>
       <c r="I25">
-        <v>0.001684634723278447</v>
+        <v>0.00335741419448522</v>
       </c>
       <c r="J25">
-        <v>0.001684634723278447</v>
+        <v>0.003358167167694559</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>13.0083678131839</v>
+        <v>15.5775195</v>
       </c>
       <c r="N25">
-        <v>13.0083678131839</v>
+        <v>31.155039</v>
       </c>
       <c r="O25">
-        <v>0.1066422807427814</v>
+        <v>0.1181720584002661</v>
       </c>
       <c r="P25">
-        <v>0.1066422807427814</v>
+        <v>0.08657047864456238</v>
       </c>
       <c r="Q25">
-        <v>7.70116161910426</v>
+        <v>20.91095581891651</v>
       </c>
       <c r="R25">
-        <v>7.70116161910426</v>
+        <v>125.465734913499</v>
       </c>
       <c r="S25">
-        <v>0.0001796532891088979</v>
+        <v>0.0003967525462645897</v>
       </c>
       <c r="T25">
-        <v>0.0001796532891088979</v>
+        <v>0.0002907181390757724</v>
       </c>
     </row>
   </sheetData>
